--- a/examples/advanced_01/reporting engine input/ObservedData/Hardin_88_PO_200mg_BID_day15_Itra.xlsx
+++ b/examples/advanced_01/reporting engine input/ObservedData/Hardin_88_PO_200mg_BID_day15_Itra.xlsx
@@ -19,10 +19,10 @@
     <t>time  [h]</t>
   </si>
   <si>
-    <t>conc S.D. [mg/l]</t>
+    <t>conc  [mg/l]</t>
   </si>
   <si>
-    <t>conc  [mg/l]</t>
+    <t>conc S.D. [mg/l]</t>
   </si>
 </sst>
 </file>
@@ -142,10 +142,10 @@
         <v>360.5</v>
       </c>
       <c r="B2" s="15">
+        <v>1.4199999570846558</v>
+      </c>
+      <c r="C2" s="15">
         <v>0.28999999165534973</v>
-      </c>
-      <c r="C2" s="15">
-        <v>1.4199999570846558</v>
       </c>
     </row>
     <row r="3">
@@ -153,10 +153,10 @@
         <v>361</v>
       </c>
       <c r="B3" s="15">
+        <v>1.4500000476837158</v>
+      </c>
+      <c r="C3" s="15">
         <v>0.41999998688697815</v>
-      </c>
-      <c r="C3" s="15">
-        <v>1.4500000476837158</v>
       </c>
     </row>
     <row r="4">
@@ -164,10 +164,10 @@
         <v>362</v>
       </c>
       <c r="B4" s="15">
+        <v>1.6400001049041748</v>
+      </c>
+      <c r="C4" s="15">
         <v>0.59400004148483276</v>
-      </c>
-      <c r="C4" s="15">
-        <v>1.6400001049041748</v>
       </c>
     </row>
     <row r="5">
@@ -175,10 +175,10 @@
         <v>363</v>
       </c>
       <c r="B5" s="15">
+        <v>1.7300000190734863</v>
+      </c>
+      <c r="C5" s="15">
         <v>0.5429999828338623</v>
-      </c>
-      <c r="C5" s="15">
-        <v>1.7300000190734863</v>
       </c>
     </row>
     <row r="6">
@@ -186,10 +186,10 @@
         <v>364</v>
       </c>
       <c r="B6" s="15">
+        <v>1.8199999332427979</v>
+      </c>
+      <c r="C6" s="15">
         <v>0.57199996709823608</v>
-      </c>
-      <c r="C6" s="15">
-        <v>1.8199999332427979</v>
       </c>
     </row>
     <row r="7">
@@ -197,10 +197,10 @@
         <v>366</v>
       </c>
       <c r="B7" s="15">
+        <v>1.6599999666213989</v>
+      </c>
+      <c r="C7" s="15">
         <v>0.56400001049041748</v>
-      </c>
-      <c r="C7" s="15">
-        <v>1.6599999666213989</v>
       </c>
     </row>
     <row r="8">
@@ -208,10 +208,10 @@
         <v>368</v>
       </c>
       <c r="B8" s="15">
+        <v>1.7200000286102295</v>
+      </c>
+      <c r="C8" s="15">
         <v>0.29300001263618469</v>
-      </c>
-      <c r="C8" s="15">
-        <v>1.7200000286102295</v>
       </c>
     </row>
     <row r="9">
@@ -219,10 +219,10 @@
         <v>372</v>
       </c>
       <c r="B9" s="15">
+        <v>1.4199999570846558</v>
+      </c>
+      <c r="C9" s="15">
         <v>0.37800002098083496</v>
-      </c>
-      <c r="C9" s="15">
-        <v>1.4199999570846558</v>
       </c>
     </row>
     <row r="10">
@@ -230,10 +230,10 @@
         <v>376</v>
       </c>
       <c r="B10" s="15">
+        <v>1.3899999856948853</v>
+      </c>
+      <c r="C10" s="15">
         <v>0.39400002360343933</v>
-      </c>
-      <c r="C10" s="15">
-        <v>1.3899999856948853</v>
       </c>
     </row>
     <row r="11">
@@ -241,10 +241,10 @@
         <v>384</v>
       </c>
       <c r="B11" s="15">
+        <v>1.2299998998641968</v>
+      </c>
+      <c r="C11" s="15">
         <v>0.28599998354911804</v>
-      </c>
-      <c r="C11" s="15">
-        <v>1.2299998998641968</v>
       </c>
     </row>
     <row r="12">
@@ -252,10 +252,10 @@
         <v>408</v>
       </c>
       <c r="B12" s="15">
+        <v>1.0400000810623169</v>
+      </c>
+      <c r="C12" s="15">
         <v>0.29300001263618469</v>
-      </c>
-      <c r="C12" s="15">
-        <v>1.0400000810623169</v>
       </c>
     </row>
     <row r="13">
@@ -263,10 +263,10 @@
         <v>432</v>
       </c>
       <c r="B13" s="15">
+        <v>0.69800001382827759</v>
+      </c>
+      <c r="C13" s="15">
         <v>0.10999999940395355</v>
-      </c>
-      <c r="C13" s="15">
-        <v>0.69800001382827759</v>
       </c>
     </row>
   </sheetData>
